--- a/public/temp/import_chapter_or_section.xlsx
+++ b/public/temp/import_chapter_or_section.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710649A-16A9-4279-8A4E-B140802E2A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="32235" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,29 +22,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>章/节名称</t>
-  </si>
-  <si>
-    <t>排序值</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>视频ID</t>
   </si>
   <si>
-    <t>父级章名称，如果是章的话为空</t>
+    <t>状态(上架，下架，隐藏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态(上架，下架，隐藏）</t>
+    <t>节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章状态(上架，下架，隐藏）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +66,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,8 +101,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -88,6 +117,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,38 +445,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -420,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -434,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
